--- a/users.xlsx
+++ b/users.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
   <si>
     <t>Name</t>
   </si>
@@ -116,6 +116,51 @@
   </si>
   <si>
     <t>fgtui</t>
+  </si>
+  <si>
+    <t>Ayush</t>
+  </si>
+  <si>
+    <t>ayush609@gmail.com</t>
+  </si>
+  <si>
+    <t>Ayush Kumar</t>
+  </si>
+  <si>
+    <t>d@gmail.com</t>
+  </si>
+  <si>
+    <t>Ayush Raj Jaiswal</t>
+  </si>
+  <si>
+    <t>ayush609@gmail564676.com</t>
+  </si>
+  <si>
+    <t>jaiswalayushraj1456@gmail.com</t>
+  </si>
+  <si>
+    <t>jaiswalayushraj1848@gmail.com</t>
+  </si>
+  <si>
+    <t>ayush609@gmai3476543.com</t>
+  </si>
+  <si>
+    <t>ayush60998677@gmal.com</t>
+  </si>
+  <si>
+    <t>jaiswalayushraj17678@gmail.com</t>
+  </si>
+  <si>
+    <t>Ayush Raj jain</t>
+  </si>
+  <si>
+    <t>jaiswalayushraj241@gmail.com</t>
+  </si>
+  <si>
+    <t>Raj Kumar</t>
+  </si>
+  <si>
+    <t>kumarRaj1@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -492,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D27"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
@@ -739,6 +784,122 @@
         <v>0</v>
       </c>
     </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19">
+        <v>8576777823</v>
+      </c>
+      <c r="D19">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21">
+        <v>6299552593</v>
+      </c>
+      <c r="D21">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22">
+        <v>6299552593</v>
+      </c>
+      <c r="D22">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25">
+        <v>6299552593</v>
+      </c>
+      <c r="D25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26">
+        <v>6299552593</v>
+      </c>
+      <c r="D26">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27">
+        <v>6299877894</v>
+      </c>
+      <c r="D27">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/users.xlsx
+++ b/users.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
   <si>
     <t>Name</t>
   </si>
@@ -161,6 +161,18 @@
   </si>
   <si>
     <t>kumarRaj1@gmail.com</t>
+  </si>
+  <si>
+    <t>Anku</t>
+  </si>
+  <si>
+    <t>angleanku21@gmail.com</t>
+  </si>
+  <si>
+    <t>Raj</t>
+  </si>
+  <si>
+    <t>Rajjain123@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -537,7 +549,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D29"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
@@ -900,6 +912,34 @@
         <v>12</v>
       </c>
     </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28">
+        <v>8909687768</v>
+      </c>
+      <c r="D28">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29">
+        <v>8787598989</v>
+      </c>
+      <c r="D29">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
